--- a/Asset/mb/xlsxs/skills.xlsx
+++ b/Asset/mb/xlsxs/skills.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22611968-9DFB-44A4-A7F0-E9A8AA3716F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2895" yWindow="3060" windowWidth="21720" windowHeight="13620"/>
+    <workbookView xWindow="17595" yWindow="4155" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="@主动技能表" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="85">
   <si>
     <t>技能名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -309,12 +310,83 @@
     <t>speed[][funcFloat]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>技能图片ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon[.][funcStr]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮生万刃</t>
+  </si>
+  <si>
+    <t>icon_zhu</t>
+  </si>
+  <si>
+    <t>Warrior</t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>永恒零度</t>
+  </si>
+  <si>
+    <t>icon_up</t>
+  </si>
+  <si>
+    <t>Skill</t>
+  </si>
+  <si>
+    <t>One</t>
+  </si>
+  <si>
+    <t>半月斩</t>
+  </si>
+  <si>
+    <t>iocn_ho</t>
+  </si>
+  <si>
+    <t>Two</t>
+  </si>
+  <si>
+    <t>咫尺天涯</t>
+  </si>
+  <si>
+    <t>iocn_yi</t>
+  </si>
+  <si>
+    <t>Three</t>
+  </si>
+  <si>
+    <t>雷动九天</t>
+  </si>
+  <si>
+    <t>FemaleAssassin</t>
+  </si>
+  <si>
+    <t>炽修罗</t>
+  </si>
+  <si>
+    <t>icon_li</t>
+  </si>
+  <si>
+    <t>不动明王</t>
+  </si>
+  <si>
+    <t>iocn_fo</t>
+  </si>
+  <si>
+    <t>唯我独尊</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -330,6 +402,12 @@
       <color rgb="FF006100"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -359,7 +437,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -383,6 +461,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -460,6 +544,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -471,7 +563,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -784,15 +876,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="19.75" style="1" customWidth="1"/>
@@ -804,7 +896,7 @@
     <col min="8" max="9" width="14" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.25">
+    <row r="1" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>52</v>
       </c>
@@ -814,8 +906,8 @@
       <c r="C1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>47</v>
+      <c r="D1" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>48</v>
@@ -830,7 +922,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -840,8 +932,8 @@
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
+      <c r="D2" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>28</v>
@@ -859,7 +951,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -882,7 +974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -896,7 +988,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -910,7 +1002,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -924,7 +1016,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -938,7 +1030,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>55</v>
       </c>
@@ -952,7 +1044,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -966,7 +1058,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>55</v>
       </c>
@@ -978,25 +1070,233 @@
       </c>
       <c r="F10" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1001</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0</v>
+      </c>
+      <c r="H11" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1002</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="7">
+        <v>5</v>
+      </c>
+      <c r="H12" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1003</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="7">
+        <v>8</v>
+      </c>
+      <c r="H13" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1004</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="7">
+        <v>10</v>
+      </c>
+      <c r="H14" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0</v>
+      </c>
+      <c r="H15" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2002</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="7">
+        <v>5</v>
+      </c>
+      <c r="H16" s="7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2003</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="7">
+        <v>8</v>
+      </c>
+      <c r="H17" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2004</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" s="7">
+        <v>13</v>
+      </c>
+      <c r="H18" s="7">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="3" width="7.5" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="4" bestFit="1" customWidth="1"/>
@@ -1007,7 +1307,7 @@
     <col min="15" max="18" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>52</v>
       </c>
@@ -1024,7 +1324,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -1063,14 +1363,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AK2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E65536"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
@@ -1081,7 +1381,7 @@
     <col min="37" max="37" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>52</v>
       </c>
@@ -1104,7 +1404,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -1165,21 +1465,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AH2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="16.5" customWidth="1"/>
     <col min="3" max="3" width="15.875" customWidth="1"/>
     <col min="4" max="4" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>52</v>
       </c>
@@ -1187,7 +1487,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -1300,31 +1600,31 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>44</v>
       </c>
